--- a/sources/Slovenian_data.xlsx
+++ b/sources/Slovenian_data.xlsx
@@ -2302,7 +2302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2326,7 +2326,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2609,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2775,15 +2774,15 @@
       <c r="L3" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>542</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -2822,15 +2821,15 @@
       <c r="L4" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -2908,15 +2907,15 @@
         <v>548</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>549</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2955,15 +2954,15 @@
       <c r="L7" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>553</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -3176,15 +3175,15 @@
       <c r="L12" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>561</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -3223,15 +3222,15 @@
       <c r="L13" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>565</v>
-      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -3274,7 +3273,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3313,15 +3312,15 @@
       <c r="L15" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>569</v>
-      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3364,7 +3363,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3538,7 +3537,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3618,15 +3617,15 @@
       <c r="L22" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>577</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3665,15 +3664,15 @@
       <c r="L23" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3712,15 +3711,15 @@
       <c r="L24" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3759,15 +3758,15 @@
       <c r="L25" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>583</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -3980,15 +3979,15 @@
       <c r="L30" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>589</v>
-      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -4027,15 +4026,15 @@
       <c r="L31" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>553</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -4117,15 +4116,15 @@
       <c r="L33" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>595</v>
-      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -4205,15 +4204,15 @@
       <c r="L35" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>598</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="5" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -4252,15 +4251,15 @@
       <c r="L36" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4342,15 +4341,15 @@
       <c r="L38" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -4387,15 +4386,15 @@
       <c r="L39" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>604</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4561,15 +4560,15 @@
       <c r="L43" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>609</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4694,15 +4693,15 @@
       <c r="L46" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>613</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -4739,15 +4738,15 @@
       <c r="L47" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>615</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4831,15 +4830,15 @@
       <c r="L49" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="M49" s="5" t="s">
-        <v>620</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4964,15 +4963,15 @@
       <c r="L52" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -5097,15 +5096,15 @@
       <c r="L55" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -5187,15 +5186,15 @@
       <c r="L57" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>631</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -5277,15 +5276,15 @@
       <c r="L59" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>634</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -5543,15 +5542,15 @@
       <c r="L65" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>641</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5586,15 +5585,15 @@
         <v>548</v>
       </c>
       <c r="L66" s="5"/>
-      <c r="M66" s="5" t="s">
-        <v>643</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="5" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -5676,15 +5675,15 @@
       <c r="L68" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>648</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5764,15 +5763,15 @@
       <c r="L70" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M70" s="5" t="s">
-        <v>651</v>
-      </c>
+      <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
+      <c r="S70" s="5" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
@@ -5940,15 +5939,15 @@
       <c r="L74" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="M74" s="5" t="s">
-        <v>658</v>
-      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -6073,15 +6072,15 @@
       <c r="L77" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -6253,15 +6252,15 @@
       <c r="L81" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -6300,15 +6299,15 @@
       <c r="L82" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="M82" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
+      <c r="S82" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -6347,15 +6346,15 @@
       <c r="L83" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M83" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
+      <c r="S83" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -6394,15 +6393,15 @@
       <c r="L84" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M84" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -6441,15 +6440,15 @@
       <c r="L85" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -6572,15 +6571,15 @@
       <c r="L88" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M88" s="5" t="s">
-        <v>673</v>
-      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
+      <c r="S88" s="5" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
@@ -6619,15 +6618,15 @@
       <c r="L89" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="M89" s="5" t="s">
-        <v>677</v>
-      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -6885,15 +6884,15 @@
       <c r="L95" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -7016,15 +7015,15 @@
       <c r="L98" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -7063,15 +7062,15 @@
       <c r="L99" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -7110,15 +7109,15 @@
       <c r="L100" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M100" s="5" t="s">
-        <v>691</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -7286,15 +7285,15 @@
       <c r="L104" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M104" s="5" t="s">
-        <v>696</v>
-      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
+      <c r="S104" s="5" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
@@ -7556,7 +7555,7 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5"/>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7599,7 +7598,7 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5"/>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7638,15 +7637,15 @@
       <c r="L112" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="M112" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7685,15 +7684,15 @@
       <c r="L113" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>553</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7732,15 +7731,15 @@
       <c r="L114" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7779,15 +7778,15 @@
       <c r="L115" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M115" s="5" t="s">
-        <v>710</v>
-      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7826,15 +7825,15 @@
       <c r="L116" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="M116" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -7879,7 +7878,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5"/>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -7918,15 +7917,15 @@
       <c r="L118" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>714</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -8053,15 +8052,15 @@
       <c r="L121" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="M121" s="5" t="s">
-        <v>718</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -8098,15 +8097,15 @@
       <c r="L122" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M122" s="5" t="s">
-        <v>720</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
+      <c r="S122" s="5" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
@@ -8145,15 +8144,15 @@
       <c r="L123" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>722</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8280,15 +8279,15 @@
       <c r="L126" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>728</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8370,15 +8369,15 @@
       <c r="L128" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="M128" s="5" t="s">
-        <v>733</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -8413,15 +8412,15 @@
         <v>548</v>
       </c>
       <c r="L129" s="5"/>
-      <c r="M129" s="5" t="s">
-        <v>734</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -8460,15 +8459,15 @@
       <c r="L130" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
@@ -8507,15 +8506,15 @@
       <c r="L131" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M131" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>

--- a/sources/Slovenian_data.xlsx
+++ b/sources/Slovenian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="737">
   <si>
     <t>language_no</t>
   </si>
@@ -2608,9 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M131"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2765,9 +2763,11 @@
         <v>540</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K3" s="5" t="s">
         <v>541</v>
       </c>
@@ -2857,9 +2857,11 @@
         <v>547</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>541</v>
       </c>
@@ -2902,7 +2904,9 @@
       <c r="I6" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="K6" s="5" t="s">
         <v>548</v>
       </c>
@@ -3035,9 +3039,11 @@
         <v>555</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>541</v>
       </c>
@@ -3078,9 +3084,11 @@
         <v>556</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>541</v>
       </c>
@@ -3166,9 +3174,11 @@
         <v>560</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K12" s="5" t="s">
         <v>541</v>
       </c>
@@ -3258,9 +3268,11 @@
         <v>566</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>541</v>
       </c>
@@ -3348,9 +3360,11 @@
         <v>570</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>541</v>
       </c>
@@ -3391,9 +3405,11 @@
         <v>571</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>541</v>
       </c>
@@ -3479,9 +3495,11 @@
         <v>573</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>541</v>
       </c>
@@ -3522,9 +3540,11 @@
         <v>574</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>541</v>
       </c>
@@ -3565,9 +3585,11 @@
         <v>575</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>541</v>
       </c>
@@ -3608,9 +3630,11 @@
         <v>576</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J22" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K22" s="5" t="s">
         <v>541</v>
       </c>
@@ -3839,9 +3863,11 @@
         <v>585</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>541</v>
       </c>
@@ -3882,9 +3908,11 @@
         <v>586</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>541</v>
       </c>
@@ -3925,9 +3953,11 @@
         <v>587</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K29" s="5" t="s">
         <v>541</v>
       </c>
@@ -4062,9 +4092,11 @@
         <v>593</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K32" s="5" t="s">
         <v>541</v>
       </c>
@@ -4152,9 +4184,11 @@
         <v>596</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>541</v>
       </c>
@@ -4195,9 +4229,11 @@
         <v>597</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J35" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K35" s="5" t="s">
         <v>541</v>
       </c>
@@ -4287,9 +4323,11 @@
         <v>600</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>541</v>
       </c>
@@ -4377,9 +4415,11 @@
         <v>603</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J39" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K39" s="5" t="s">
         <v>541</v>
       </c>
@@ -4422,9 +4462,11 @@
         <v>605</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>541</v>
       </c>
@@ -4465,9 +4507,11 @@
         <v>606</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>541</v>
       </c>
@@ -4508,9 +4552,11 @@
         <v>607</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>541</v>
       </c>
@@ -4551,9 +4597,11 @@
         <v>608</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K43" s="5" t="s">
         <v>541</v>
       </c>
@@ -4596,9 +4644,11 @@
         <v>610</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>541</v>
       </c>
@@ -4639,9 +4689,11 @@
         <v>611</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>541</v>
       </c>
@@ -4729,9 +4781,11 @@
         <v>614</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>541</v>
       </c>
@@ -4866,9 +4920,11 @@
         <v>621</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>541</v>
       </c>
@@ -4909,9 +4965,11 @@
         <v>622</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>541</v>
       </c>
@@ -4999,9 +5057,11 @@
         <v>625</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>541</v>
       </c>
@@ -5042,9 +5102,11 @@
         <v>626</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J54" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K54" s="5" t="s">
         <v>541</v>
       </c>
@@ -5132,9 +5194,11 @@
         <v>628</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>541</v>
       </c>
@@ -5222,9 +5286,11 @@
         <v>632</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>541</v>
       </c>
@@ -5312,9 +5378,11 @@
         <v>635</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J60" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K60" s="5" t="s">
         <v>541</v>
       </c>
@@ -5355,9 +5423,11 @@
         <v>636</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>541</v>
       </c>
@@ -5488,9 +5558,11 @@
         <v>639</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>541</v>
       </c>
@@ -5580,7 +5652,9 @@
       <c r="I66" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="J66" s="5"/>
+      <c r="J66" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="K66" s="5" t="s">
         <v>548</v>
       </c>
@@ -5621,9 +5695,11 @@
         <v>644</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>541</v>
       </c>
@@ -5711,9 +5787,11 @@
         <v>649</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K69" s="5" t="s">
         <v>541</v>
       </c>
@@ -5754,9 +5832,11 @@
         <v>650</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>541</v>
       </c>
@@ -5799,9 +5879,11 @@
         <v>652</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>541</v>
       </c>
@@ -5842,9 +5924,11 @@
         <v>653</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>541</v>
       </c>
@@ -5885,9 +5969,11 @@
         <v>654</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>541</v>
       </c>
@@ -5975,9 +6061,11 @@
         <v>659</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K75" s="5" t="s">
         <v>541</v>
       </c>
@@ -6018,9 +6106,11 @@
         <v>660</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>541</v>
       </c>
@@ -6153,9 +6243,11 @@
         <v>663</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>541</v>
       </c>
@@ -6476,9 +6568,11 @@
         <v>670</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>541</v>
       </c>
@@ -6519,9 +6613,11 @@
         <v>671</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>541</v>
       </c>
@@ -6562,9 +6658,11 @@
         <v>672</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J88" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K88" s="5" t="s">
         <v>541</v>
       </c>
@@ -6744,9 +6842,11 @@
         <v>682</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K92" s="5" t="s">
         <v>541</v>
       </c>
@@ -6787,9 +6887,11 @@
         <v>683</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J93" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K93" s="5" t="s">
         <v>541</v>
       </c>
@@ -6830,9 +6932,11 @@
         <v>684</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>541</v>
       </c>
@@ -6920,9 +7024,11 @@
         <v>686</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J96" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K96" s="5" t="s">
         <v>541</v>
       </c>
@@ -6963,9 +7069,11 @@
         <v>687</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>541</v>
       </c>
@@ -7006,9 +7114,11 @@
         <v>617</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K98" s="5" t="s">
         <v>541</v>
       </c>
@@ -7145,9 +7255,11 @@
         <v>692</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K101" s="5" t="s">
         <v>541</v>
       </c>
@@ -7233,9 +7345,11 @@
         <v>694</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>541</v>
       </c>
@@ -7276,9 +7390,11 @@
         <v>695</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>541</v>
       </c>
@@ -7366,9 +7482,11 @@
         <v>700</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>541</v>
       </c>
@@ -7409,9 +7527,11 @@
         <v>701</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K107" s="5" t="s">
         <v>541</v>
       </c>
@@ -7452,9 +7572,11 @@
         <v>702</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K108" s="5" t="s">
         <v>541</v>
       </c>
@@ -7495,9 +7617,11 @@
         <v>703</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>541</v>
       </c>
@@ -7583,9 +7707,11 @@
         <v>705</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K111" s="5" t="s">
         <v>541</v>
       </c>
@@ -7998,9 +8124,11 @@
         <v>716</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K120" s="5" t="s">
         <v>541</v>
       </c>
@@ -8088,9 +8216,11 @@
         <v>719</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>541</v>
       </c>
@@ -8225,9 +8355,11 @@
         <v>724</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>541</v>
       </c>
@@ -8315,9 +8447,11 @@
         <v>729</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>541</v>
       </c>
@@ -8407,7 +8541,9 @@
       <c r="I129" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="J129" s="5"/>
+      <c r="J129" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="K129" s="5" t="s">
         <v>548</v>
       </c>
